--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1_2" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t xml:space="preserve">MSDIN</t>
   </si>
@@ -40,17 +41,25 @@
     <t xml:space="preserve">IMEI_TO</t>
   </si>
   <si>
+    <t xml:space="preserve">call_time</t>
+  </si>
+  <si>
     <t xml:space="preserve">BAD_MSDIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALL_TIME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\Thh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -76,6 +85,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -152,20 +168,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -291,10 +307,404 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.94"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>12345</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>1111111</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>30.7346</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>79.0669</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>2222222</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>45367.0028356482</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>12345</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1111111</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>30.7346</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>79.0669</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>2222222</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>45367.0445023148</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>67890</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>2222222</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>30.7346</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>79.0669</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>-34</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>3333333</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>45367.0861689815</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>67890</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>2222222</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>30.7346</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>79.0669</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>3333333</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>45367.1278356482</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>13579</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>3333333</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>22.2442</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>68.9685</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>2222222</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>45367.1695023148</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>13579</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="n">
+        <v>22.2442</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>68.9685</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2222222</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>45367.2111689815</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>12345</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>2222222</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>22.2442</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>68.9685</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>4444444</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>45367.2528356482</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>67890</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>1111111</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>22.2442</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>68.9685</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>3333333</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>45367.2945023148</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>13579</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>3333333</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>22.2442</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>68.9685</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>1111111</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>45367.3361689815</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>3333334</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>30.7346</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>79.0669</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>2222222</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>45367.3778356482</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>13579</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>4444444</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>30.7346</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>79.0669</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>1111111</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>45367.4195023148</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>67890</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>1111111</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>30.7346</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>79.0669</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>4444444</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>45367.4611689815</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>12345</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>2222222</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>27.565</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>77.6593</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>3333333</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>45367.5028356482</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>13579</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>4444444</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>27.565</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>77.6593</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>1111111</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>45367.5445023148</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>54321</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>5555555</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>27.565</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>77.6593</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>2222222</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>45367.5861689815</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -321,6 +731,9 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -341,6 +754,9 @@
       <c r="F2" s="2" t="n">
         <v>2222222</v>
       </c>
+      <c r="G2" s="7" t="n">
+        <v>45367.14375</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
@@ -359,47 +775,56 @@
         <v>24</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3333333</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2222222</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <v>45367.1854166667</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>67890</v>
+        <v>12345</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>2222222</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>30.7346</v>
+        <v>22.2442</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>79.0669</v>
+        <v>68.9685</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-34</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3333332</v>
+        <v>4444444</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>45367.2270833333</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>67890</v>
+        <v>12345</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>2222222</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>30.7346</v>
+        <v>27.565</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>79.0669</v>
+        <v>77.6593</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>3333333</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>45367.26875</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -421,123 +846,146 @@
       <c r="F6" s="2" t="n">
         <v>2222222</v>
       </c>
+      <c r="G6" s="7" t="n">
+        <v>45367.3104166667</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="2" t="n">
         <v>13579</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="n">
+      <c r="B7" s="2" t="n">
+        <v>3333333</v>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>22.2442</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="3" t="n">
         <v>68.9685</v>
       </c>
-      <c r="E7" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>2222222</v>
+      <c r="E7" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>1111111</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>45367.3520833333</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>12345</v>
+        <v>13579</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2222222</v>
+        <v>4444444</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>22.2442</v>
+        <v>30.7346</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>68.9685</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>23</v>
+        <v>79.0669</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4444444</v>
+        <v>1111111</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>45367.39375</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
+        <v>13579</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>4444444</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>27.565</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>77.6593</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>1111111</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>45367.4354166667</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>54321</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>5555555</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>27.565</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>77.6593</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>2222222</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>45367.4770833333</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>67890</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>1111111</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>22.2442</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>68.9685</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="F9" s="2" t="n">
+      <c r="B11" s="2" t="n">
+        <v>2222222</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>30.7346</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>79.0669</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>3333333</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>13579</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>3333333</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>22.2442</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>68.9685</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>108</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>1111111</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>3333334</v>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30.7346</v>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>79.0669</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>2222222</v>
+      <c r="G11" s="7" t="n">
+        <v>45367.51875</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>13579</v>
+        <v>67890</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>4444444</v>
+        <v>1111111</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>30.7346</v>
+        <v>22.2442</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>79.0669</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>4</v>
+        <v>68.9685</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>67</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1111111</v>
+        <v>3333333</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>45367.5604166667</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,71 +1007,14 @@
       <c r="F13" s="2" t="n">
         <v>4444444</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>12345</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>2222222</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>27.565</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>77.6593</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>3333333</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>13579</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>4444444</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>27.565</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>77.6593</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>1111111</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>54321</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>5555555</v>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>27.565</v>
-      </c>
-      <c r="D16" s="3" t="n">
-        <v>77.6593</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>2222222</v>
+      <c r="G13" s="7" t="n">
+        <v>45367.6020833333</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
